--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Inha-Tgfbr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Inha</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +546,10 @@
         <v>1.785988</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>32.56613966666666</v>
+        <v>41.607769</v>
       </c>
       <c r="N2">
-        <v>97.698419</v>
+        <v>124.823307</v>
       </c>
       <c r="O2">
-        <v>0.4203775945150413</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="P2">
-        <v>0.4203775945150412</v>
+        <v>0.4674897261536314</v>
       </c>
       <c r="Q2">
-        <v>19.38757821699689</v>
+        <v>24.77032538025733</v>
       </c>
       <c r="R2">
-        <v>174.488203952972</v>
+        <v>222.932928422316</v>
       </c>
       <c r="S2">
-        <v>0.4203775945150413</v>
+        <v>0.3992197793321299</v>
       </c>
       <c r="T2">
-        <v>0.4203775945150412</v>
+        <v>0.39921977933213</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +608,10 @@
         <v>1.785988</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>122.56588</v>
       </c>
       <c r="O3">
-        <v>0.5273775188114274</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="P3">
-        <v>0.5273775188114271</v>
+        <v>0.4590351838457449</v>
       </c>
       <c r="Q3">
         <v>24.32235454327111</v>
@@ -638,10 +638,10 @@
         <v>218.90119088944</v>
       </c>
       <c r="S3">
-        <v>0.5273775188114274</v>
+        <v>0.391999897641298</v>
       </c>
       <c r="T3">
-        <v>0.5273775188114271</v>
+        <v>0.3919998976412981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +670,40 @@
         <v>1.785988</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03779266666666666</v>
+        <v>0.2401453333333333</v>
       </c>
       <c r="N4">
-        <v>0.113378</v>
+        <v>0.720436</v>
       </c>
       <c r="O4">
-        <v>0.0004878438300104565</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="P4">
-        <v>0.0004878438300104564</v>
+        <v>0.002698185430636104</v>
       </c>
       <c r="Q4">
-        <v>0.02249908305155555</v>
+        <v>0.1429655611964444</v>
       </c>
       <c r="R4">
-        <v>0.2024917474639999</v>
+        <v>1.286690050768</v>
       </c>
       <c r="S4">
-        <v>0.0004878438300104565</v>
+        <v>0.002304155432630241</v>
       </c>
       <c r="T4">
-        <v>0.0004878438300104564</v>
+        <v>0.002304155432630241</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>1.785988</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.937153333333333</v>
+        <v>6.288874666666666</v>
       </c>
       <c r="N5">
-        <v>11.81146</v>
+        <v>18.866624</v>
       </c>
       <c r="O5">
-        <v>0.05082245130814891</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="P5">
-        <v>0.05082245130814889</v>
+        <v>0.0706595034147231</v>
       </c>
       <c r="Q5">
-        <v>2.343902869164444</v>
+        <v>3.743951562723554</v>
       </c>
       <c r="R5">
-        <v>21.09512582248</v>
+        <v>33.69556406451199</v>
       </c>
       <c r="S5">
-        <v>0.05082245130814891</v>
+        <v>0.06034073003707766</v>
       </c>
       <c r="T5">
-        <v>0.05082245130814889</v>
+        <v>0.06034073003707767</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -794,40 +794,350 @@
         <v>1.785988</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.8539648188994299</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.85396481889943</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07240166666666668</v>
+        <v>0.010449</v>
       </c>
       <c r="N6">
-        <v>0.217205</v>
+        <v>0.031347</v>
       </c>
       <c r="O6">
-        <v>0.000934591535372129</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="P6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001174011552645203</v>
       </c>
       <c r="Q6">
-        <v>0.0431028359488889</v>
+        <v>0.006220596203999999</v>
       </c>
       <c r="R6">
-        <v>0.38792552354</v>
+        <v>0.05598536583599999</v>
       </c>
       <c r="S6">
-        <v>0.000934591535372129</v>
+        <v>0.0001002564562940499</v>
       </c>
       <c r="T6">
-        <v>0.0009345915353721286</v>
+        <v>0.0001002564562940499</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.305419</v>
+      </c>
+      <c r="I7">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J7">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>41.607769</v>
+      </c>
+      <c r="N7">
+        <v>124.823307</v>
+      </c>
+      <c r="O7">
+        <v>0.4674897261536314</v>
+      </c>
+      <c r="P7">
+        <v>0.4674897261536314</v>
+      </c>
+      <c r="Q7">
+        <v>4.235934400070333</v>
+      </c>
+      <c r="R7">
+        <v>38.123409600633</v>
+      </c>
+      <c r="S7">
+        <v>0.06826994682150149</v>
+      </c>
+      <c r="T7">
+        <v>0.06826994682150149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.305419</v>
+      </c>
+      <c r="I8">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J8">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>40.85529333333333</v>
+      </c>
+      <c r="N8">
+        <v>122.56588</v>
+      </c>
+      <c r="O8">
+        <v>0.4590351838457449</v>
+      </c>
+      <c r="P8">
+        <v>0.4590351838457449</v>
+      </c>
+      <c r="Q8">
+        <v>4.159327611524444</v>
+      </c>
+      <c r="R8">
+        <v>37.43394850372</v>
+      </c>
+      <c r="S8">
+        <v>0.06703528620444683</v>
+      </c>
+      <c r="T8">
+        <v>0.06703528620444683</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.305419</v>
+      </c>
+      <c r="I9">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J9">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.2401453333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.720436</v>
+      </c>
+      <c r="O9">
+        <v>0.002698185430636104</v>
+      </c>
+      <c r="P9">
+        <v>0.002698185430636104</v>
+      </c>
+      <c r="Q9">
+        <v>0.02444831585377778</v>
+      </c>
+      <c r="R9">
+        <v>0.220034842684</v>
+      </c>
+      <c r="S9">
+        <v>0.0003940299980058632</v>
+      </c>
+      <c r="T9">
+        <v>0.0003940299980058632</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.305419</v>
+      </c>
+      <c r="I10">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J10">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>6.288874666666666</v>
+      </c>
+      <c r="N10">
+        <v>18.866624</v>
+      </c>
+      <c r="O10">
+        <v>0.0706595034147231</v>
+      </c>
+      <c r="P10">
+        <v>0.0706595034147231</v>
+      </c>
+      <c r="Q10">
+        <v>0.6402472706062221</v>
+      </c>
+      <c r="R10">
+        <v>5.762225435455999</v>
+      </c>
+      <c r="S10">
+        <v>0.01031877337764544</v>
+      </c>
+      <c r="T10">
+        <v>0.01031877337764544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.1018063333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.305419</v>
+      </c>
+      <c r="I11">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="J11">
+        <v>0.1460351811005701</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.010449</v>
+      </c>
+      <c r="N11">
+        <v>0.031347</v>
+      </c>
+      <c r="O11">
+        <v>0.0001174011552645203</v>
+      </c>
+      <c r="P11">
+        <v>0.0001174011552645203</v>
+      </c>
+      <c r="Q11">
+        <v>0.001063774377</v>
+      </c>
+      <c r="R11">
+        <v>0.009573969393</v>
+      </c>
+      <c r="S11">
+        <v>1.714469897047037E-05</v>
+      </c>
+      <c r="T11">
+        <v>1.714469897047037E-05</v>
       </c>
     </row>
   </sheetData>
